--- a/background/GEOME-NMNH-testTemplate.xlsx
+++ b/background/GEOME-NMNH-testTemplate.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\iSamples\metadata\background\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D49F0D-9C09-48AF-A5DC-8DCCA95C44FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="2595" yWindow="1890" windowWidth="18510" windowHeight="14550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" r:id="rId3" sheetId="1"/>
-    <sheet name="Samples" r:id="rId4" sheetId="2"/>
-    <sheet name="Samples_Fields" r:id="rId5" sheetId="3"/>
-    <sheet name="Lists" r:id="rId6" sheetId="4"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Samples" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Samples_Fields" sheetId="3" r:id="rId3"/>
+    <sheet name="Lists" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="951">
   <si>
     <t>~naan=21547~</t>
   </si>
@@ -251,13 +270,13 @@
     <t>scientificName as the lowest taxon identified</t>
   </si>
   <si>
-    <t>The day on which the subject was identified as representing the Taxon. </t>
-  </si>
-  <si>
-    <t>The month on which the subject was identified as representing the Taxon. </t>
-  </si>
-  <si>
-    <t>The year on which the subject was identified as representing the Taxon. </t>
+    <t>The day on which the subject was identified as representing the Taxon.</t>
+  </si>
+  <si>
+    <t>The month on which the subject was identified as representing the Taxon.</t>
+  </si>
+  <si>
+    <t>The year on which the subject was identified as representing the Taxon.</t>
   </si>
   <si>
     <t>The process by which the biological individual(s) represented in the Occurrence became established at the location. Recommended best practice is to use a controlled vocabulary. See associated list in ''lists'' tab.</t>
@@ -317,7 +336,7 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>The name of the country or major administrative unit in which the Location occurs. </t>
+    <t>The name of the country or major administrative unit in which the Location occurs.</t>
   </si>
   <si>
     <t>The full, unabbreviated name of the next smaller administrative region than stateProvince (county, shire, department, etc.) in which the Location occurs.</t>
@@ -2873,24 +2892,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.00"/>
-      <color rgb="000000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.00"/>
-      <color rgb="000000"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.00"/>
-      <color rgb="FF2600"/>
+      <sz val="14"/>
+      <color rgb="FFFF2600"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2914,149 +2932,463 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="Top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="160.0" customWidth="true" bestFit="false"/>
+    <col min="1" max="1" width="160" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="true">
+    <row r="1" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.42578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.42578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.42578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.42578125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.42578125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.42578125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="15.42578125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.42578125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="6.42578125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="7.42578125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="6.42578125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="21.42578125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.42578125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.42578125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="4.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="10.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="13.42578125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.42578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="10.42578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.42578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="12.42578125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="17.42578125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="7.42578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="13.42578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="15.42578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="17.42578125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="8.42578125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="13.42578125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="18.42578125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="20.42578125" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="19.42578125" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="18.42578125" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="26.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:51" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -3212,554 +3544,575 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation sqref="H2:H100001" type="list" allowBlank="true" showDropDown="false" errorStyle="stop" showErrorMessage="true" errorTitle="Data Validation Error" error="The value you entered is not from the recommended list. This will create an error upon validation.">
-      <formula1>Lists!$S$2:$S$283</formula1>
-    </dataValidation>
-    <dataValidation sqref="W2:W100001" type="list" allowBlank="true" showDropDown="false" errorStyle="information" showErrorMessage="true" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation.">
-      <formula1>Lists!$U$2:$U$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="AP2:AP100001" type="list" allowBlank="true" showDropDown="false" errorStyle="information" showErrorMessage="true" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation.">
-      <formula1>Lists!$W$2:$W$118</formula1>
-    </dataValidation>
-    <dataValidation sqref="AC2:AC100001" type="list" allowBlank="true" showDropDown="false" errorStyle="information" showErrorMessage="true" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation.">
-      <formula1>Lists!$AD$2:$AD$15</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D100001" type="list" allowBlank="true" showDropDown="false" errorStyle="stop" showErrorMessage="true" errorTitle="Data Validation Error" error="The value you entered is not from the recommended list. This will create an error upon validation.">
-      <formula1>Lists!$AF$2:$AF$105</formula1>
-    </dataValidation>
-    <dataValidation sqref="AW2:AW100001" type="list" allowBlank="true" showDropDown="false" errorStyle="information" showErrorMessage="true" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation.">
-      <formula1>Lists!$AI$2:$AI$30</formula1>
-    </dataValidation>
-    <dataValidation sqref="X2:X100001" type="list" allowBlank="true" showDropDown="false" errorStyle="stop" showErrorMessage="true" errorTitle="Data Validation Error" error="The value you entered is not from the recommended list. This will create an error upon validation.">
-      <formula1>Lists!$AK$2:$AK$12</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Error" error="The value you entered is not from the recommended list. This will create an error upon validation." xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Lists!$S$2:$S$283</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H100001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation." xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Lists!$U$2:$U$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2:W100001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation." xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Lists!$W$2:$W$118</xm:f>
+          </x14:formula1>
+          <xm:sqref>AP2:AP100001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation." xr:uid="{00000000-0002-0000-0100-000003000000}">
+          <x14:formula1>
+            <xm:f>Lists!$AD$2:$AD$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC2:AC100001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Error" error="The value you entered is not from the recommended list. This will create an error upon validation." xr:uid="{00000000-0002-0000-0100-000004000000}">
+          <x14:formula1>
+            <xm:f>Lists!$AF$2:$AF$105</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D100001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation." xr:uid="{00000000-0002-0000-0100-000005000000}">
+          <x14:formula1>
+            <xm:f>Lists!$AI$2:$AI$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>AW2:AW100001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Error" error="The value you entered is not from the recommended list. This will create an error upon validation." xr:uid="{00000000-0002-0000-0100-000006000000}">
+          <x14:formula1>
+            <xm:f>Lists!$AK$2:$AK$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>X2:X100001</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.0" customWidth="true" bestFit="false"/>
-    <col min="3" max="3" width="35.0" customWidth="true" bestFit="false"/>
-    <col min="4" max="4" width="25.0" customWidth="true" bestFit="false"/>
+    <col min="1" max="1" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+    <sortCondition ref="A2:A52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AN283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.42578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.42578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.42578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="27.42578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.42578125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="18.42578125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="29.42578125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="19.42578125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.42578125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="20.42578125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="22.42578125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="42.42578125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="19.42578125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="45.42578125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="31.42578125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="19.42578125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="37.42578125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="44.42578125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.42578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.42578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.42578125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="22.42578125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="18.42578125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="19.42578125" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="29.42578125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="21.42578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="27.42578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="20.42578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="12.42578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>96</v>
       </c>
@@ -3881,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -4003,7 +4356,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -4119,7 +4472,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>106</v>
       </c>
@@ -4208,7 +4561,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -4291,7 +4644,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>108</v>
       </c>
@@ -4371,7 +4724,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>117</v>
       </c>
@@ -4445,7 +4798,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>118</v>
       </c>
@@ -4516,7 +4869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>119</v>
       </c>
@@ -4578,7 +4931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>140</v>
       </c>
@@ -4637,7 +4990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>141</v>
       </c>
@@ -4687,7 +5040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>182</v>
       </c>
@@ -4731,7 +5084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>183</v>
       </c>
@@ -4772,7 +5125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>184</v>
       </c>
@@ -4813,7 +5166,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>185</v>
       </c>
@@ -4851,7 +5204,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>186</v>
       </c>
@@ -4886,7 +5239,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S17" t="s">
         <v>252</v>
       </c>
@@ -4912,7 +5265,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S18" t="s">
         <v>253</v>
       </c>
@@ -4938,7 +5291,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S19" t="s">
         <v>254</v>
       </c>
@@ -4964,7 +5317,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>255</v>
       </c>
@@ -4987,7 +5340,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>256</v>
       </c>
@@ -5010,7 +5363,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>257</v>
       </c>
@@ -5030,7 +5383,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S23" t="s">
         <v>258</v>
       </c>
@@ -5050,7 +5403,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S24" t="s">
         <v>259</v>
       </c>
@@ -5070,7 +5423,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S25" t="s">
         <v>260</v>
       </c>
@@ -5090,7 +5443,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S26" t="s">
         <v>261</v>
       </c>
@@ -5107,7 +5460,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S27" t="s">
         <v>262</v>
       </c>
@@ -5124,7 +5477,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S28" t="s">
         <v>263</v>
       </c>
@@ -5141,7 +5494,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S29" t="s">
         <v>264</v>
       </c>
@@ -5155,7 +5508,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S30" t="s">
         <v>265</v>
       </c>
@@ -5169,7 +5522,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S31" t="s">
         <v>266</v>
       </c>
@@ -5180,7 +5533,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="19:38" x14ac:dyDescent="0.25">
       <c r="S32" t="s">
         <v>267</v>
       </c>
@@ -5191,7 +5544,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S33" t="s">
         <v>268</v>
       </c>
@@ -5202,7 +5555,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S34" t="s">
         <v>269</v>
       </c>
@@ -5213,7 +5566,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S35" t="s">
         <v>270</v>
       </c>
@@ -5224,7 +5577,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S36" t="s">
         <v>271</v>
       </c>
@@ -5235,7 +5588,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S37" t="s">
         <v>272</v>
       </c>
@@ -5246,7 +5599,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S38" t="s">
         <v>273</v>
       </c>
@@ -5257,7 +5610,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S39" t="s">
         <v>274</v>
       </c>
@@ -5268,7 +5621,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S40" t="s">
         <v>275</v>
       </c>
@@ -5279,7 +5632,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S41" t="s">
         <v>276</v>
       </c>
@@ -5290,7 +5643,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S42" t="s">
         <v>277</v>
       </c>
@@ -5301,7 +5654,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>278</v>
       </c>
@@ -5312,7 +5665,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S44" t="s">
         <v>279</v>
       </c>
@@ -5323,7 +5676,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>280</v>
       </c>
@@ -5334,7 +5687,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S46" t="s">
         <v>281</v>
       </c>
@@ -5345,7 +5698,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S47" t="s">
         <v>282</v>
       </c>
@@ -5356,7 +5709,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S48" t="s">
         <v>283</v>
       </c>
@@ -5367,7 +5720,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S49" t="s">
         <v>284</v>
       </c>
@@ -5378,7 +5731,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S50" t="s">
         <v>285</v>
       </c>
@@ -5389,7 +5742,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S51" t="s">
         <v>286</v>
       </c>
@@ -5400,7 +5753,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S52" t="s">
         <v>287</v>
       </c>
@@ -5411,7 +5764,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S53" t="s">
         <v>288</v>
       </c>
@@ -5422,7 +5775,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S54" t="s">
         <v>289</v>
       </c>
@@ -5433,7 +5786,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S55" t="s">
         <v>290</v>
       </c>
@@ -5444,7 +5797,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S56" t="s">
         <v>291</v>
       </c>
@@ -5455,7 +5808,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S57" t="s">
         <v>292</v>
       </c>
@@ -5466,7 +5819,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S58" t="s">
         <v>293</v>
       </c>
@@ -5477,7 +5830,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S59" t="s">
         <v>294</v>
       </c>
@@ -5488,7 +5841,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S60" t="s">
         <v>295</v>
       </c>
@@ -5499,7 +5852,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S61" t="s">
         <v>296</v>
       </c>
@@ -5510,7 +5863,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S62" t="s">
         <v>297</v>
       </c>
@@ -5521,7 +5874,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S63" t="s">
         <v>298</v>
       </c>
@@ -5532,7 +5885,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S64" t="s">
         <v>299</v>
       </c>
@@ -5543,7 +5896,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S65" t="s">
         <v>300</v>
       </c>
@@ -5554,7 +5907,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S66" t="s">
         <v>301</v>
       </c>
@@ -5565,7 +5918,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S67" t="s">
         <v>302</v>
       </c>
@@ -5576,7 +5929,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S68" t="s">
         <v>303</v>
       </c>
@@ -5587,7 +5940,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S69" t="s">
         <v>304</v>
       </c>
@@ -5598,7 +5951,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S70" t="s">
         <v>305</v>
       </c>
@@ -5609,7 +5962,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S71" t="s">
         <v>306</v>
       </c>
@@ -5620,7 +5973,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S72" t="s">
         <v>307</v>
       </c>
@@ -5631,7 +5984,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S73" t="s">
         <v>308</v>
       </c>
@@ -5642,7 +5995,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S74" t="s">
         <v>309</v>
       </c>
@@ -5653,7 +6006,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S75" t="s">
         <v>310</v>
       </c>
@@ -5664,7 +6017,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S76" t="s">
         <v>311</v>
       </c>
@@ -5675,7 +6028,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S77" t="s">
         <v>312</v>
       </c>
@@ -5686,7 +6039,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S78" t="s">
         <v>313</v>
       </c>
@@ -5697,7 +6050,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S79" t="s">
         <v>314</v>
       </c>
@@ -5708,7 +6061,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S80" t="s">
         <v>315</v>
       </c>
@@ -5719,7 +6072,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S81" t="s">
         <v>316</v>
       </c>
@@ -5730,7 +6083,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S82" t="s">
         <v>317</v>
       </c>
@@ -5741,7 +6094,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S83" t="s">
         <v>318</v>
       </c>
@@ -5752,7 +6105,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S84" t="s">
         <v>319</v>
       </c>
@@ -5763,7 +6116,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S85" t="s">
         <v>320</v>
       </c>
@@ -5774,7 +6127,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S86" t="s">
         <v>321</v>
       </c>
@@ -5785,7 +6138,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S87" t="s">
         <v>322</v>
       </c>
@@ -5796,7 +6149,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S88" t="s">
         <v>323</v>
       </c>
@@ -5807,7 +6160,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S89" t="s">
         <v>324</v>
       </c>
@@ -5818,7 +6171,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S90" t="s">
         <v>325</v>
       </c>
@@ -5829,7 +6182,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S91" t="s">
         <v>326</v>
       </c>
@@ -5840,7 +6193,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S92" t="s">
         <v>327</v>
       </c>
@@ -5851,7 +6204,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S93" t="s">
         <v>328</v>
       </c>
@@ -5862,7 +6215,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S94" t="s">
         <v>329</v>
       </c>
@@ -5873,7 +6226,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S95" t="s">
         <v>330</v>
       </c>
@@ -5884,7 +6237,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S96" t="s">
         <v>331</v>
       </c>
@@ -5895,7 +6248,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S97" t="s">
         <v>332</v>
       </c>
@@ -5906,7 +6259,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S98" t="s">
         <v>333</v>
       </c>
@@ -5917,7 +6270,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S99" t="s">
         <v>334</v>
       </c>
@@ -5928,7 +6281,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S100" t="s">
         <v>335</v>
       </c>
@@ -5939,7 +6292,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S101" t="s">
         <v>336</v>
       </c>
@@ -5950,7 +6303,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S102" t="s">
         <v>337</v>
       </c>
@@ -5961,7 +6314,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S103" t="s">
         <v>338</v>
       </c>
@@ -5972,7 +6325,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S104" t="s">
         <v>339</v>
       </c>
@@ -5983,7 +6336,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S105" t="s">
         <v>340</v>
       </c>
@@ -5994,7 +6347,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S106" t="s">
         <v>341</v>
       </c>
@@ -6002,7 +6355,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S107" t="s">
         <v>342</v>
       </c>
@@ -6010,7 +6363,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S108" t="s">
         <v>343</v>
       </c>
@@ -6018,7 +6371,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S109" t="s">
         <v>344</v>
       </c>
@@ -6026,7 +6379,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S110" t="s">
         <v>345</v>
       </c>
@@ -6034,7 +6387,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S111" t="s">
         <v>346</v>
       </c>
@@ -6042,7 +6395,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="19:32" x14ac:dyDescent="0.25">
       <c r="S112" t="s">
         <v>347</v>
       </c>
@@ -6050,7 +6403,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S113" t="s">
         <v>348</v>
       </c>
@@ -6058,7 +6411,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S114" t="s">
         <v>349</v>
       </c>
@@ -6066,7 +6419,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S115" t="s">
         <v>350</v>
       </c>
@@ -6074,7 +6427,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S116" t="s">
         <v>351</v>
       </c>
@@ -6082,7 +6435,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S117" t="s">
         <v>352</v>
       </c>
@@ -6090,7 +6443,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S118" t="s">
         <v>353</v>
       </c>
@@ -6098,832 +6451,832 @@
         <v>666</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S119" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S120" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S121" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S122" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S123" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S124" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S125" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S126" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S127" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S128" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S129" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S130" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S131" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S132" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S133" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S134" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S135" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S136" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S137" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S138" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S139" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S140" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S141" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S142" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S143" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S144" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S145" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S146" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S147" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S148" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S149" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S150" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S151" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S152" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S153" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S154" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S155" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S156" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S157" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S158" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S159" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S160" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S161" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S162" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S163" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S164" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S165" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S166" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S167" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S168" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S169" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S170" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S171" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S172" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S173" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S174" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S175" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S176" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S177" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S178" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S179" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S180" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S181" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S182" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S183" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S184" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S185" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S186" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S187" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S188" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S189" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S190" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S191" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S192" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S193" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S194" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S195" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S196" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S197" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S198" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S199" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S200" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S201" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S202" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S203" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S204" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S205" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S206" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S207" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S208" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S209" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S210" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S211" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S212" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S213" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S214" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S215" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S216" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S217" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S218" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S219" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S220" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S221" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S222" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S223" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S224" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S225" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S226" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S227" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S228" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S229" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S230" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S231" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S232" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S233" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S234" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S235" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S236" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S237" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S238" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S239" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S240" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S241" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S242" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S243" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S244" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S245" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S246" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S247" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S248" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S249" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S250" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S251" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S252" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S253" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S254" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S255" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S256" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S257" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S258" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S259" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S260" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S261" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S262" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S263" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S264" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S265" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S266" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S267" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S268" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S269" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S270" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S271" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S272" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S273" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S274" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S275" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S276" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S277" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S278" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S279" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S280" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S281" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S282" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S283" t="s">
         <v>518</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>